--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Inhba-Acvr2b.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Inhba-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H2">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I2">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J2">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.518760812441756</v>
+        <v>1.047294333333333</v>
       </c>
       <c r="N2">
-        <v>0.518760812441756</v>
+        <v>3.141883</v>
       </c>
       <c r="O2">
-        <v>0.2158942115168226</v>
+        <v>0.2943898468263134</v>
       </c>
       <c r="P2">
-        <v>0.2158942115168226</v>
+        <v>0.2943898468263134</v>
       </c>
       <c r="Q2">
-        <v>0.2402991436028308</v>
+        <v>2.396367227012889</v>
       </c>
       <c r="R2">
-        <v>0.2402991436028308</v>
+        <v>21.567305043116</v>
       </c>
       <c r="S2">
-        <v>0.02623225810207364</v>
+        <v>0.1167025836543893</v>
       </c>
       <c r="T2">
-        <v>0.02623225810207364</v>
+        <v>0.1167025836543893</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H3">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I3">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J3">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.341078127588744</v>
+        <v>0.5210533333333333</v>
       </c>
       <c r="N3">
-        <v>0.341078127588744</v>
+        <v>1.56316</v>
       </c>
       <c r="O3">
-        <v>0.1419474865011583</v>
+        <v>0.1464658082318851</v>
       </c>
       <c r="P3">
-        <v>0.1419474865011583</v>
+        <v>0.1464658082318851</v>
       </c>
       <c r="Q3">
-        <v>0.1579933950204352</v>
+        <v>1.192248532035555</v>
       </c>
       <c r="R3">
-        <v>0.1579933950204352</v>
+        <v>10.73023678832</v>
       </c>
       <c r="S3">
-        <v>0.01724735034199309</v>
+        <v>0.05806225459865794</v>
       </c>
       <c r="T3">
-        <v>0.01724735034199309</v>
+        <v>0.05806225459865794</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4632176098109</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H4">
-        <v>0.4632176098109</v>
+        <v>6.864452</v>
       </c>
       <c r="I4">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J4">
-        <v>0.1215051479044847</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.54300831000489</v>
+        <v>0.3665986666666667</v>
       </c>
       <c r="N4">
-        <v>1.54300831000489</v>
+        <v>1.099796</v>
       </c>
       <c r="O4">
-        <v>0.642158301982019</v>
+        <v>0.1030492784041265</v>
       </c>
       <c r="P4">
-        <v>0.642158301982019</v>
+        <v>0.1030492784041265</v>
       </c>
       <c r="Q4">
-        <v>0.7147486212788213</v>
+        <v>0.8388329835324445</v>
       </c>
       <c r="R4">
-        <v>0.7147486212788213</v>
+        <v>7.549496851792</v>
       </c>
       <c r="S4">
-        <v>0.07802553946041797</v>
+        <v>0.04085099117082424</v>
       </c>
       <c r="T4">
-        <v>0.07802553946041797</v>
+        <v>0.04085099117082423</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.52410154440256</v>
+        <v>2.288150666666667</v>
       </c>
       <c r="H5">
-        <v>2.52410154440256</v>
+        <v>6.864452</v>
       </c>
       <c r="I5">
-        <v>0.6620891023632983</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="J5">
-        <v>0.6620891023632983</v>
+        <v>0.3964219041944151</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.518760812441756</v>
+        <v>1.622562</v>
       </c>
       <c r="N5">
-        <v>0.518760812441756</v>
+        <v>4.867686</v>
       </c>
       <c r="O5">
-        <v>0.2158942115168226</v>
+        <v>0.456095066537675</v>
       </c>
       <c r="P5">
-        <v>0.2158942115168226</v>
+        <v>0.456095066537675</v>
       </c>
       <c r="Q5">
-        <v>1.309404967859763</v>
+        <v>3.712666322008</v>
       </c>
       <c r="R5">
-        <v>1.309404967859763</v>
+        <v>33.413996898072</v>
       </c>
       <c r="S5">
-        <v>0.1429412047086051</v>
+        <v>0.1808060747705436</v>
       </c>
       <c r="T5">
-        <v>0.1429412047086051</v>
+        <v>0.1808060747705436</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H6">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I6">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J6">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.341078127588744</v>
+        <v>1.047294333333333</v>
       </c>
       <c r="N6">
-        <v>0.341078127588744</v>
+        <v>3.141883</v>
       </c>
       <c r="O6">
-        <v>0.1419474865011583</v>
+        <v>0.2943898468263134</v>
       </c>
       <c r="P6">
-        <v>0.1419474865011583</v>
+        <v>0.2943898468263134</v>
       </c>
       <c r="Q6">
-        <v>0.8609158286086821</v>
+        <v>2.711334015800666</v>
       </c>
       <c r="R6">
-        <v>0.8609158286086821</v>
+        <v>24.402006142206</v>
       </c>
       <c r="S6">
-        <v>0.09398188392027834</v>
+        <v>0.1320414005112192</v>
       </c>
       <c r="T6">
-        <v>0.09398188392027834</v>
+        <v>0.1320414005112192</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.52410154440256</v>
+        <v>2.588894</v>
       </c>
       <c r="H7">
-        <v>2.52410154440256</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I7">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J7">
-        <v>0.6620891023632983</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.54300831000489</v>
+        <v>0.5210533333333333</v>
       </c>
       <c r="N7">
-        <v>1.54300831000489</v>
+        <v>1.56316</v>
       </c>
       <c r="O7">
-        <v>0.642158301982019</v>
+        <v>0.1464658082318851</v>
       </c>
       <c r="P7">
-        <v>0.642158301982019</v>
+        <v>0.1464658082318851</v>
       </c>
       <c r="Q7">
-        <v>3.894709658309326</v>
+        <v>1.348951848346666</v>
       </c>
       <c r="R7">
-        <v>3.894709658309326</v>
+        <v>12.14056663512</v>
       </c>
       <c r="S7">
-        <v>0.4251660137344148</v>
+        <v>0.06569367338730225</v>
       </c>
       <c r="T7">
-        <v>0.4251660137344148</v>
+        <v>0.06569367338730227</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.271061736233501</v>
+        <v>2.588894</v>
       </c>
       <c r="H8">
-        <v>0.271061736233501</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I8">
-        <v>0.07110134773534026</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J8">
-        <v>0.07110134773534026</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.518760812441756</v>
+        <v>0.3665986666666667</v>
       </c>
       <c r="N8">
-        <v>0.518760812441756</v>
+        <v>1.099796</v>
       </c>
       <c r="O8">
-        <v>0.2158942115168226</v>
+        <v>0.1030492784041265</v>
       </c>
       <c r="P8">
-        <v>0.2158942115168226</v>
+        <v>0.1030492784041265</v>
       </c>
       <c r="Q8">
-        <v>0.1406162065103639</v>
+        <v>0.9490850885413333</v>
       </c>
       <c r="R8">
-        <v>0.1406162065103639</v>
+        <v>8.541765796871999</v>
       </c>
       <c r="S8">
-        <v>0.0153503694071047</v>
+        <v>0.04622024566689366</v>
       </c>
       <c r="T8">
-        <v>0.0153503694071047</v>
+        <v>0.04622024566689366</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.271061736233501</v>
+        <v>2.588894</v>
       </c>
       <c r="H9">
-        <v>0.271061736233501</v>
+        <v>7.766681999999999</v>
       </c>
       <c r="I9">
-        <v>0.07110134773534026</v>
+        <v>0.4485256605643812</v>
       </c>
       <c r="J9">
-        <v>0.07110134773534026</v>
+        <v>0.4485256605643813</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.341078127588744</v>
+        <v>1.622562</v>
       </c>
       <c r="N9">
-        <v>0.341078127588744</v>
+        <v>4.867686</v>
       </c>
       <c r="O9">
-        <v>0.1419474865011583</v>
+        <v>0.456095066537675</v>
       </c>
       <c r="P9">
-        <v>0.1419474865011583</v>
+        <v>0.456095066537675</v>
       </c>
       <c r="Q9">
-        <v>0.09245322945547653</v>
+        <v>4.200641026427999</v>
       </c>
       <c r="R9">
-        <v>0.09245322945547653</v>
+        <v>37.805769237852</v>
       </c>
       <c r="S9">
-        <v>0.01009265759787638</v>
+        <v>0.2045703409989661</v>
       </c>
       <c r="T9">
-        <v>0.01009265759787638</v>
+        <v>0.2045703409989661</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.271061736233501</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H10">
-        <v>0.271061736233501</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I10">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J10">
-        <v>0.07110134773534026</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.54300831000489</v>
+        <v>1.047294333333333</v>
       </c>
       <c r="N10">
-        <v>1.54300831000489</v>
+        <v>3.141883</v>
       </c>
       <c r="O10">
-        <v>0.642158301982019</v>
+        <v>0.2943898468263134</v>
       </c>
       <c r="P10">
-        <v>0.642158301982019</v>
+        <v>0.2943898468263134</v>
       </c>
       <c r="Q10">
-        <v>0.4182505115326456</v>
+        <v>0.3271248287034444</v>
       </c>
       <c r="R10">
-        <v>0.4182505115326456</v>
+        <v>2.944123458331</v>
       </c>
       <c r="S10">
-        <v>0.04565832073035916</v>
+        <v>0.01593091086243025</v>
       </c>
       <c r="T10">
-        <v>0.04565832073035916</v>
+        <v>0.01593091086243026</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,57 +1089,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5539481984821411</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H11">
-        <v>0.5539481984821411</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I11">
-        <v>0.1453044019968767</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J11">
-        <v>0.1453044019968767</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.518760812441756</v>
+        <v>0.5210533333333333</v>
       </c>
       <c r="N11">
-        <v>0.518760812441756</v>
+        <v>1.56316</v>
       </c>
       <c r="O11">
-        <v>0.2158942115168226</v>
+        <v>0.1464658082318851</v>
       </c>
       <c r="P11">
-        <v>0.2158942115168226</v>
+        <v>0.1464658082318851</v>
       </c>
       <c r="Q11">
-        <v>0.2873666174952426</v>
+        <v>0.1627522244577777</v>
       </c>
       <c r="R11">
-        <v>0.2873666174952426</v>
+        <v>1.46477002012</v>
       </c>
       <c r="S11">
-        <v>0.03137037929903912</v>
+        <v>0.007925999352527281</v>
       </c>
       <c r="T11">
-        <v>0.03137037929903912</v>
+        <v>0.007925999352527283</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5539481984821411</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H12">
-        <v>0.5539481984821411</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I12">
-        <v>0.1453044019968767</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J12">
-        <v>0.1453044019968767</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.341078127588744</v>
+        <v>0.3665986666666667</v>
       </c>
       <c r="N12">
-        <v>0.341078127588744</v>
+        <v>1.099796</v>
       </c>
       <c r="O12">
-        <v>0.1419474865011583</v>
+        <v>0.1030492784041265</v>
       </c>
       <c r="P12">
-        <v>0.1419474865011583</v>
+        <v>0.1030492784041265</v>
       </c>
       <c r="Q12">
-        <v>0.1889396143194466</v>
+        <v>0.1145079489302222</v>
       </c>
       <c r="R12">
-        <v>0.1889396143194466</v>
+        <v>1.030571540372</v>
       </c>
       <c r="S12">
-        <v>0.02062559464101054</v>
+        <v>0.005576513206525305</v>
       </c>
       <c r="T12">
-        <v>0.02062559464101054</v>
+        <v>0.005576513206525305</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5539481984821411</v>
+        <v>0.3123523333333333</v>
       </c>
       <c r="H13">
-        <v>0.5539481984821411</v>
+        <v>0.9370569999999999</v>
       </c>
       <c r="I13">
-        <v>0.1453044019968767</v>
+        <v>0.05411501461132016</v>
       </c>
       <c r="J13">
-        <v>0.1453044019968767</v>
+        <v>0.05411501461132018</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.54300831000489</v>
+        <v>1.622562</v>
       </c>
       <c r="N13">
-        <v>1.54300831000489</v>
+        <v>4.867686</v>
       </c>
       <c r="O13">
-        <v>0.642158301982019</v>
+        <v>0.456095066537675</v>
       </c>
       <c r="P13">
-        <v>0.642158301982019</v>
+        <v>0.456095066537675</v>
       </c>
       <c r="Q13">
-        <v>0.8547466735701817</v>
+        <v>0.5068110266779999</v>
       </c>
       <c r="R13">
-        <v>0.8547466735701817</v>
+        <v>4.561299240102</v>
       </c>
       <c r="S13">
-        <v>0.09330842805682704</v>
+        <v>0.02468159118983733</v>
       </c>
       <c r="T13">
-        <v>0.09330842805682704</v>
+        <v>0.02468159118983733</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5826116666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.747835</v>
+      </c>
+      <c r="I14">
+        <v>0.1009374206298835</v>
+      </c>
+      <c r="J14">
+        <v>0.1009374206298836</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.047294333333333</v>
+      </c>
+      <c r="N14">
+        <v>3.141883</v>
+      </c>
+      <c r="O14">
+        <v>0.2943898468263134</v>
+      </c>
+      <c r="P14">
+        <v>0.2943898468263134</v>
+      </c>
+      <c r="Q14">
+        <v>0.6101658970338889</v>
+      </c>
+      <c r="R14">
+        <v>5.491493073305</v>
+      </c>
+      <c r="S14">
+        <v>0.02971495179827458</v>
+      </c>
+      <c r="T14">
+        <v>0.02971495179827459</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5826116666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.747835</v>
+      </c>
+      <c r="I15">
+        <v>0.1009374206298835</v>
+      </c>
+      <c r="J15">
+        <v>0.1009374206298836</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5210533333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.56316</v>
+      </c>
+      <c r="O15">
+        <v>0.1464658082318851</v>
+      </c>
+      <c r="P15">
+        <v>0.1464658082318851</v>
+      </c>
+      <c r="Q15">
+        <v>0.3035717509555555</v>
+      </c>
+      <c r="R15">
+        <v>2.732145758599999</v>
+      </c>
+      <c r="S15">
+        <v>0.01478388089339765</v>
+      </c>
+      <c r="T15">
+        <v>0.01478388089339765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5826116666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.747835</v>
+      </c>
+      <c r="I16">
+        <v>0.1009374206298835</v>
+      </c>
+      <c r="J16">
+        <v>0.1009374206298836</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.3665986666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.099796</v>
+      </c>
+      <c r="O16">
+        <v>0.1030492784041265</v>
+      </c>
+      <c r="P16">
+        <v>0.1030492784041265</v>
+      </c>
+      <c r="Q16">
+        <v>0.2135846601844444</v>
+      </c>
+      <c r="R16">
+        <v>1.92226194166</v>
+      </c>
+      <c r="S16">
+        <v>0.01040152835988329</v>
+      </c>
+      <c r="T16">
+        <v>0.01040152835988329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5826116666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.747835</v>
+      </c>
+      <c r="I17">
+        <v>0.1009374206298835</v>
+      </c>
+      <c r="J17">
+        <v>0.1009374206298836</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.622562</v>
+      </c>
+      <c r="N17">
+        <v>4.867686</v>
+      </c>
+      <c r="O17">
+        <v>0.456095066537675</v>
+      </c>
+      <c r="P17">
+        <v>0.456095066537675</v>
+      </c>
+      <c r="Q17">
+        <v>0.94532355109</v>
+      </c>
+      <c r="R17">
+        <v>8.507911959809999</v>
+      </c>
+      <c r="S17">
+        <v>0.04603705957832803</v>
+      </c>
+      <c r="T17">
+        <v>0.04603705957832804</v>
       </c>
     </row>
   </sheetData>
